--- a/robot/power/v1.0/LM5069_Design_Calculator_REV_C__STL90N10F7_ExtSS.xlsx
+++ b/robot/power/v1.0/LM5069_Design_Calculator_REV_C__STL90N10F7_ExtSS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guyfl\Documents\ateam\electrical\robot\power\v1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A126280D-264B-4ABF-8F40-09855C2C0DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E444CA-10FF-48B2-BB36-BD7FDF4E400B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookPassword="C5C9" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="652" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -752,7 +752,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="496">
   <si>
     <t>Max Rs =</t>
   </si>
@@ -2938,9 +2938,6 @@
   </si>
   <si>
     <t>NA</t>
-  </si>
-  <si>
-    <t>BSC070N10NS5</t>
   </si>
   <si>
     <t>STL90N10F7</t>
@@ -4723,6 +4720,26 @@
       <font>
         <color theme="0"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -5011,26 +5028,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -18048,8 +18045,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AS214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F134" sqref="F134"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K127" sqref="K127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -20365,7 +20362,7 @@
         <v>474</v>
       </c>
       <c r="F51" s="215" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G51" s="154"/>
       <c r="H51" s="75"/>
@@ -23522,7 +23519,7 @@
         <v>114</v>
       </c>
       <c r="F116" s="169">
-        <v>10</v>
+        <v>1500</v>
       </c>
       <c r="G116" s="160" t="s">
         <v>84</v>
@@ -27797,69 +27794,69 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:AO60 C61:AO65 C66:I66 N66:AO67 C67:H67 B68:AO142">
-    <cfRule type="expression" dxfId="34" priority="5">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>$G$23="No"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="6">
+    <cfRule type="expression" dxfId="0" priority="6">
       <formula>$G$22="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D109:F112">
-    <cfRule type="cellIs" dxfId="32" priority="74" stopIfTrue="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="34" priority="74" stopIfTrue="1" operator="notBetween">
       <formula>10</formula>
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="expression" dxfId="31" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="68" stopIfTrue="1">
       <formula>F94="Option A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="expression" dxfId="30" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="71" stopIfTrue="1">
       <formula>F94="Option A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="expression" dxfId="29" priority="59">
+    <cfRule type="expression" dxfId="31" priority="59">
       <formula>F94="Option A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71:F71">
-    <cfRule type="expression" dxfId="28" priority="76">
+    <cfRule type="expression" dxfId="30" priority="76">
       <formula>#REF!="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G44">
-    <cfRule type="expression" dxfId="27" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="11" stopIfTrue="1">
       <formula>IF($F$38="No", "TRUE", "FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72:G78">
-    <cfRule type="expression" dxfId="26" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="22" stopIfTrue="1">
       <formula>$F$71="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79:G79 D80:G91 B84">
-    <cfRule type="expression" dxfId="25" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="8" stopIfTrue="1">
       <formula>$F$71="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="24" priority="72" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="72" stopIfTrue="1" operator="greaterThan">
       <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40:F41">
-    <cfRule type="cellIs" dxfId="23" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="39" operator="equal">
       <formula>"""NA"""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="33" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45:F47">
-    <cfRule type="cellIs" dxfId="21" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="lessThan">
       <formula>$F$30</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27876,106 +27873,106 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F64">
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="7" operator="lessThan">
       <formula>$F$63</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="19" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="15" operator="lessThan">
       <formula>$F$63</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F73">
-    <cfRule type="cellIs" dxfId="18" priority="78" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="78" operator="lessThan">
       <formula>0.25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76">
-    <cfRule type="cellIs" dxfId="17" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="29" operator="lessThan">
       <formula>$F$75</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78">
-    <cfRule type="cellIs" dxfId="16" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="26" operator="lessThan">
       <formula>1.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="27" operator="between">
+    <cfRule type="cellIs" dxfId="17" priority="27" operator="between">
       <formula>1.1</formula>
       <formula>1.3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79">
-    <cfRule type="expression" dxfId="14" priority="14">
+    <cfRule type="expression" dxfId="16" priority="14">
       <formula>#REF!="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80:F81">
-    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="NA">
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",F80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F82 F85">
-    <cfRule type="cellIs" dxfId="12" priority="17" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="greaterThanOrEqual">
       <formula>$F$80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F86 F91">
-    <cfRule type="cellIs" dxfId="11" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="19" operator="lessThan">
       <formula>1.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F86">
-    <cfRule type="cellIs" dxfId="10" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="18" operator="between">
       <formula>1.1</formula>
       <formula>1.499999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F91">
-    <cfRule type="cellIs" dxfId="9" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="16" operator="between">
       <formula>1.1</formula>
       <formula>1.299999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96">
-    <cfRule type="cellIs" dxfId="8" priority="65" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="10" priority="65" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>F95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F102">
-    <cfRule type="expression" dxfId="7" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="69" stopIfTrue="1">
       <formula>F94="Option A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G54:G60">
-    <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="12" stopIfTrue="1">
       <formula>IF($F$51="Custom", "FALSE", "TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G82 G84:G89">
-    <cfRule type="expression" dxfId="5" priority="24">
+    <cfRule type="expression" dxfId="7" priority="24">
       <formula>#REF!="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G98">
-    <cfRule type="expression" dxfId="4" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="67" stopIfTrue="1">
       <formula>F94="Option A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G102">
-    <cfRule type="expression" dxfId="3" priority="62">
+    <cfRule type="expression" dxfId="5" priority="62">
       <formula>F94="Option A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G106">
-    <cfRule type="expression" dxfId="2" priority="61">
+    <cfRule type="expression" dxfId="4" priority="61">
       <formula>F94="Option A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS59:AS65">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$G$22="No"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$G$23="No"</formula>
     </cfRule>
   </conditionalFormatting>
